--- a/nodes_source_analyses/households/households_water_heater_combined_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_combined_network_gas.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="2320" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -287,9 +295,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -439,6 +444,10 @@
   <si>
     <t>ETM Library URL</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -447,9 +456,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -616,11 +625,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1275,7 +1279,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1286,40 +1290,40 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1328,8 +1332,8 @@
     <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1348,10 +1352,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1377,7 +1381,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1394,7 +1398,7 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1408,7 +1412,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1431,11 +1435,11 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1455,7 +1459,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="13" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1468,31 +1472,31 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1754,80 +1758,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2098,7 +2037,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2535,52 +2474,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2589,29 +2528,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="88" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="90" t="s">
         <v>68</v>
@@ -2620,33 +2559,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="90"/>
       <c r="C12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="90" t="s">
         <v>73</v>
@@ -2655,49 +2594,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>81</v>
@@ -2706,49 +2645,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="43.25" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" style="34" customWidth="1"/>
     <col min="10" max="10" width="3" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="151" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="152"/>
@@ -2756,7 +2690,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="154"/>
       <c r="C3" s="155"/>
       <c r="D3" s="155"/>
@@ -2764,7 +2698,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="157"/>
       <c r="C4" s="158"/>
       <c r="D4" s="158"/>
@@ -2772,10 +2706,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2786,7 +2720,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2807,7 +2741,7 @@
       </c>
       <c r="J7" s="109"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2818,10 +2752,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2831,10 +2765,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="131" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>4</v>
@@ -2847,11 +2781,11 @@
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
       <c r="I10" s="143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>32</v>
@@ -2871,7 +2805,7 @@
       <c r="J11" s="110"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -2891,7 +2825,7 @@
       <c r="J12" s="110"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2911,7 +2845,7 @@
       <c r="J13" s="110"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -2931,7 +2865,7 @@
       <c r="J14" s="110"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>38</v>
@@ -2951,7 +2885,7 @@
       <c r="J15" s="110"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>39</v>
@@ -2972,7 +2906,7 @@
       </c>
       <c r="J16" s="110"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>40</v>
@@ -2994,7 +2928,7 @@
       </c>
       <c r="J17" s="110"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="85"/>
       <c r="D18" s="106"/>
@@ -3005,10 +2939,10 @@
       <c r="I18" s="32"/>
       <c r="J18" s="110"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D19" s="106"/>
       <c r="E19" s="107"/>
@@ -3018,7 +2952,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="110"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>41</v>
@@ -3036,11 +2970,11 @@
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="143" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J20" s="110"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>42</v>
@@ -3061,7 +2995,7 @@
       </c>
       <c r="J21" s="110"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -3082,7 +3016,7 @@
       </c>
       <c r="J22" s="110"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>43</v>
@@ -3103,7 +3037,7 @@
       </c>
       <c r="J23" s="110"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>44</v>
@@ -3125,7 +3059,7 @@
       </c>
       <c r="J24" s="110"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>45</v>
@@ -3146,7 +3080,7 @@
       </c>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -3167,7 +3101,7 @@
       </c>
       <c r="J26" s="110"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3188,7 +3122,7 @@
       </c>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="2:10" ht="16" thickBot="1">
+    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>36</v>
@@ -3207,7 +3141,7 @@
       </c>
       <c r="J28" s="110"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3218,7 +3152,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="110"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3231,7 +3165,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="110"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>35</v>
@@ -3252,7 +3186,7 @@
       </c>
       <c r="J31" s="110"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>47</v>
@@ -3273,7 +3207,7 @@
       </c>
       <c r="J32" s="110"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>48</v>
@@ -3291,11 +3225,11 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="150" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J33" s="110"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>33</v>
@@ -3314,7 +3248,7 @@
       </c>
       <c r="J34" s="110"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>59</v>
@@ -3331,7 +3265,7 @@
       </c>
       <c r="J35" s="110"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>60</v>
@@ -3348,7 +3282,7 @@
       </c>
       <c r="J36" s="110"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>62</v>
@@ -3365,7 +3299,7 @@
       </c>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>63</v>
@@ -3382,7 +3316,7 @@
       </c>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>61</v>
@@ -3399,7 +3333,7 @@
       </c>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3416,43 +3350,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3467,28 +3364,27 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="70" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="70" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="70" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="71" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="71" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="71" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="71" customWidth="1"/>
-    <col min="13" max="13" width="7.875" style="71" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="71" customWidth="1"/>
-    <col min="15" max="15" width="68.625" style="70" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="70"/>
+    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="70" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="70" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="71" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="71" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="71" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="71" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="71" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="71" customWidth="1"/>
+    <col min="15" max="15" width="68.5703125" style="70" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3504,10 +3400,10 @@
       <c r="N2" s="74"/>
       <c r="O2" s="73"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1">
+    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3519,22 +3415,22 @@
       </c>
       <c r="H3" s="114"/>
       <c r="I3" s="66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J3" s="65"/>
       <c r="K3" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="114" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -3550,10 +3446,10 @@
       <c r="N4" s="113"/>
       <c r="O4" s="135"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="75"/>
       <c r="C5" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3568,10 +3464,10 @@
       <c r="N5" s="10"/>
       <c r="O5" s="69"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="75"/>
       <c r="C6" s="139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="78"/>
       <c r="E6" s="78"/>
@@ -3599,10 +3495,10 @@
       <c r="N6" s="77"/>
       <c r="O6" s="69"/>
     </row>
-    <row r="7" spans="2:15" ht="16" thickBot="1">
+    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="75"/>
       <c r="C7" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="78"/>
       <c r="E7" s="78"/>
@@ -3630,10 +3526,10 @@
       </c>
       <c r="N7" s="81"/>
       <c r="O7" s="140" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -3648,10 +3544,10 @@
       <c r="M8" s="82"/>
       <c r="N8" s="82"/>
       <c r="O8" s="142" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="16" thickBot="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3669,7 +3565,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="2:15" ht="16" thickBot="1">
+    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="75"/>
       <c r="C10" s="86" t="s">
         <v>5</v>
@@ -3695,7 +3591,7 @@
       <c r="N10" s="83"/>
       <c r="O10" s="119"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="75"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3711,10 +3607,10 @@
       <c r="N11" s="83"/>
       <c r="O11" s="69"/>
     </row>
-    <row r="12" spans="2:15" ht="16" thickBot="1">
+    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="75"/>
       <c r="C12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -3728,13 +3624,13 @@
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="140" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="16" thickBot="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="75"/>
       <c r="C13" s="111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3762,13 +3658,13 @@
       </c>
       <c r="N13" s="82"/>
       <c r="O13" s="30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="75"/>
       <c r="C14" s="118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -3795,11 +3691,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3814,22 +3705,22 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
     <col min="10" max="10" width="12" style="47" customWidth="1"/>
-    <col min="11" max="11" width="39.625" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="46"/>
+    <col min="11" max="11" width="39.5703125" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3841,7 +3732,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3855,7 +3746,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3867,7 +3758,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>28</v>
@@ -3883,19 +3774,19 @@
         <v>29</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="57" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K5" s="57" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3907,41 +3798,41 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="51"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
       <c r="E7" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="54"/>
       <c r="G7" s="54"/>
       <c r="H7" s="54"/>
       <c r="I7" s="54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J7" s="53"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="59"/>
       <c r="E8" s="54"/>
       <c r="F8" s="54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
         <v>65</v>
@@ -3949,17 +3840,17 @@
       <c r="D9" s="60"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -3971,28 +3862,28 @@
       <c r="J10" s="55"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
       <c r="E11" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" s="55"/>
       <c r="H11" s="55"/>
       <c r="I11" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="55"/>
       <c r="K11" s="68"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="59"/>
@@ -4002,10 +3893,10 @@
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
       <c r="K12" s="59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="51"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
@@ -4017,28 +3908,28 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="64"/>
       <c r="E14" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="62"/>
       <c r="H14" s="62"/>
       <c r="I14" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="51"/>
       <c r="C15" s="60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="64"/>
       <c r="E15" s="59"/>
@@ -4048,10 +3939,10 @@
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
       <c r="K15" s="59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="51"/>
       <c r="C16" s="60"/>
       <c r="D16" s="64"/>
@@ -4063,30 +3954,30 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="51"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
       <c r="E17" s="59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="62"/>
       <c r="H17" s="62"/>
       <c r="I17" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J17" s="62"/>
       <c r="K17" s="63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="51"/>
       <c r="C18" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="64"/>
       <c r="F18" s="61"/>
@@ -4096,7 +3987,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="51"/>
       <c r="C19" s="84" t="s">
         <v>5</v>
@@ -4112,11 +4003,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4131,18 +4017,18 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="123" customWidth="1"/>
-    <col min="2" max="2" width="4.125" style="123" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="123" customWidth="1"/>
-    <col min="4" max="9" width="10.625" style="123"/>
+    <col min="1" max="1" width="3.5703125" style="123" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="123" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="123" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" style="123"/>
     <col min="10" max="10" width="53" style="123" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="123"/>
+    <col min="11" max="16384" width="10.7109375" style="123"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="16" thickBot="1"/>
-    <row r="3" spans="2:10">
+    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="124"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4153,13 +4039,13 @@
       <c r="I3" s="16"/>
       <c r="J3" s="125"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="103"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -4168,7 +4054,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="127"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="128"/>
       <c r="C5" s="126"/>
       <c r="D5" s="126"/>
@@ -4179,7 +4065,7 @@
       <c r="I5" s="126"/>
       <c r="J5" s="129"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="128"/>
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
@@ -4190,7 +4076,7 @@
       <c r="I6" s="126"/>
       <c r="J6" s="129"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="128"/>
       <c r="C7" s="126"/>
       <c r="D7" s="126"/>
@@ -4201,10 +4087,10 @@
       <c r="I7" s="126"/>
       <c r="J7" s="129"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="128"/>
       <c r="C8" s="141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="126"/>
       <c r="E8" s="126"/>
@@ -4214,7 +4100,7 @@
       <c r="I8" s="126"/>
       <c r="J8" s="129"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="128"/>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
@@ -4225,7 +4111,7 @@
       <c r="I9" s="126"/>
       <c r="J9" s="129"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="128"/>
       <c r="C10" s="126"/>
       <c r="D10" s="126"/>
@@ -4236,7 +4122,7 @@
       <c r="I10" s="126"/>
       <c r="J10" s="129"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="128"/>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
@@ -4247,7 +4133,7 @@
       <c r="I11" s="126"/>
       <c r="J11" s="129"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="128"/>
       <c r="C12" s="126"/>
       <c r="D12" s="126"/>
@@ -4256,13 +4142,13 @@
         <v>799</v>
       </c>
       <c r="G12" s="149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" s="126"/>
       <c r="I12" s="126"/>
       <c r="J12" s="129"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="128"/>
       <c r="C13" s="126"/>
       <c r="D13" s="126"/>
@@ -4273,7 +4159,7 @@
       <c r="I13" s="126"/>
       <c r="J13" s="129"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="128"/>
       <c r="C14" s="126"/>
       <c r="D14" s="126"/>
@@ -4284,7 +4170,7 @@
       <c r="I14" s="126"/>
       <c r="J14" s="129"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="128"/>
       <c r="C15" s="126"/>
       <c r="D15" s="126"/>
@@ -4295,7 +4181,7 @@
       <c r="I15" s="126"/>
       <c r="J15" s="129"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="128"/>
       <c r="C16" s="126"/>
       <c r="D16" s="126"/>
@@ -4306,7 +4192,7 @@
       <c r="I16" s="126"/>
       <c r="J16" s="129"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="128"/>
       <c r="C17" s="126"/>
       <c r="D17" s="126"/>
@@ -4317,7 +4203,7 @@
       <c r="I17" s="126"/>
       <c r="J17" s="129"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="128"/>
       <c r="C18" s="126"/>
       <c r="D18" s="126"/>
@@ -4328,7 +4214,7 @@
       <c r="I18" s="126"/>
       <c r="J18" s="129"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="128"/>
       <c r="C19" s="126"/>
       <c r="D19" s="126"/>
@@ -4339,7 +4225,7 @@
       <c r="I19" s="126"/>
       <c r="J19" s="129"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="128"/>
       <c r="C20" s="126"/>
       <c r="D20" s="126"/>
@@ -4350,7 +4236,7 @@
       <c r="I20" s="126"/>
       <c r="J20" s="129"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="128"/>
       <c r="C21" s="126"/>
       <c r="D21" s="126"/>
@@ -4361,7 +4247,7 @@
       <c r="I21" s="126"/>
       <c r="J21" s="129"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="128"/>
       <c r="C22" s="126"/>
       <c r="D22" s="126"/>
@@ -4372,7 +4258,7 @@
       <c r="I22" s="126"/>
       <c r="J22" s="129"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="128"/>
       <c r="C23" s="126"/>
       <c r="D23" s="126"/>
@@ -4383,7 +4269,7 @@
       <c r="I23" s="126"/>
       <c r="J23" s="129"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="128"/>
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
@@ -4394,7 +4280,7 @@
       <c r="I24" s="126"/>
       <c r="J24" s="129"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="128"/>
       <c r="C25" s="126"/>
       <c r="D25" s="126"/>
@@ -4405,7 +4291,7 @@
       <c r="I25" s="126"/>
       <c r="J25" s="129"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="128"/>
       <c r="C26" s="126"/>
       <c r="D26" s="126"/>
@@ -4416,7 +4302,7 @@
       <c r="I26" s="126"/>
       <c r="J26" s="129"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="128"/>
       <c r="C27" s="126"/>
       <c r="D27" s="126"/>
@@ -4427,7 +4313,7 @@
       <c r="I27" s="126"/>
       <c r="J27" s="129"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="128"/>
       <c r="C28" s="126"/>
       <c r="D28" s="126"/>
@@ -4436,13 +4322,13 @@
         <v>15</v>
       </c>
       <c r="G28" s="149" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H28" s="126"/>
       <c r="I28" s="126"/>
       <c r="J28" s="129"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="128"/>
       <c r="C29" s="126"/>
       <c r="D29" s="126"/>
@@ -4453,7 +4339,7 @@
       <c r="I29" s="126"/>
       <c r="J29" s="129"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="128"/>
       <c r="C30" s="126"/>
       <c r="D30" s="126"/>
@@ -4464,7 +4350,7 @@
       <c r="I30" s="126"/>
       <c r="J30" s="129"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="128"/>
       <c r="C31" s="126"/>
       <c r="D31" s="126"/>
@@ -4475,7 +4361,7 @@
       <c r="I31" s="126"/>
       <c r="J31" s="129"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="128"/>
       <c r="C32" s="126"/>
       <c r="D32" s="126"/>
@@ -4486,7 +4372,7 @@
       <c r="I32" s="126"/>
       <c r="J32" s="129"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="128"/>
       <c r="C33" s="126"/>
       <c r="D33" s="126"/>
@@ -4497,7 +4383,7 @@
       <c r="I33" s="126"/>
       <c r="J33" s="129"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="128"/>
       <c r="C34" s="126"/>
       <c r="D34" s="126"/>
@@ -4506,13 +4392,13 @@
         <v>1064.95</v>
       </c>
       <c r="G34" s="149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H34" s="126"/>
       <c r="I34" s="126"/>
       <c r="J34" s="129"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="128"/>
       <c r="C35" s="126"/>
       <c r="D35" s="126"/>
@@ -4523,7 +4409,7 @@
       <c r="I35" s="126"/>
       <c r="J35" s="129"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="128"/>
       <c r="C36" s="126"/>
       <c r="D36" s="126"/>
@@ -4534,7 +4420,7 @@
       <c r="I36" s="126"/>
       <c r="J36" s="129"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="128"/>
       <c r="C37" s="126"/>
       <c r="D37" s="126"/>
@@ -4545,7 +4431,7 @@
       <c r="I37" s="126"/>
       <c r="J37" s="129"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="128"/>
       <c r="C38" s="126"/>
       <c r="D38" s="126"/>
@@ -4556,7 +4442,7 @@
       <c r="I38" s="126"/>
       <c r="J38" s="129"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="128"/>
       <c r="C39" s="126"/>
       <c r="D39" s="126"/>
@@ -4567,7 +4453,7 @@
       <c r="I39" s="126"/>
       <c r="J39" s="129"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="128"/>
       <c r="C40" s="126"/>
       <c r="D40" s="126"/>
@@ -4578,7 +4464,7 @@
       <c r="I40" s="126"/>
       <c r="J40" s="129"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="128"/>
       <c r="C41" s="126"/>
       <c r="D41" s="126"/>
@@ -4589,7 +4475,7 @@
       <c r="I41" s="126"/>
       <c r="J41" s="129"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="128"/>
       <c r="C42" s="126"/>
       <c r="D42" s="126"/>
@@ -4600,7 +4486,7 @@
       <c r="I42" s="126"/>
       <c r="J42" s="129"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43" s="128"/>
       <c r="C43" s="126"/>
       <c r="D43" s="126"/>
@@ -4611,7 +4497,7 @@
       <c r="I43" s="126"/>
       <c r="J43" s="129"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="128"/>
       <c r="C44" s="126"/>
       <c r="D44" s="126"/>
@@ -4622,7 +4508,7 @@
       <c r="I44" s="126"/>
       <c r="J44" s="129"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45" s="128"/>
       <c r="C45" s="126"/>
       <c r="D45" s="126"/>
@@ -4633,7 +4519,7 @@
       <c r="I45" s="126"/>
       <c r="J45" s="129"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="128"/>
       <c r="C46" s="126"/>
       <c r="D46" s="126"/>
@@ -4644,7 +4530,7 @@
       <c r="I46" s="126"/>
       <c r="J46" s="129"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47" s="128"/>
       <c r="C47" s="126"/>
       <c r="D47" s="126"/>
@@ -4655,7 +4541,7 @@
       <c r="I47" s="126"/>
       <c r="J47" s="129"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="128"/>
       <c r="C48" s="126"/>
       <c r="D48" s="126"/>
@@ -4666,7 +4552,7 @@
       <c r="I48" s="126"/>
       <c r="J48" s="129"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="128"/>
       <c r="C49" s="126"/>
       <c r="D49" s="126"/>
@@ -4677,7 +4563,7 @@
       <c r="I49" s="126"/>
       <c r="J49" s="129"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="128"/>
       <c r="C50" s="126"/>
       <c r="D50" s="126"/>
@@ -4688,7 +4574,7 @@
       <c r="I50" s="126"/>
       <c r="J50" s="129"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="128"/>
       <c r="C51" s="126"/>
       <c r="D51" s="126"/>
@@ -4699,7 +4585,7 @@
       <c r="I51" s="126"/>
       <c r="J51" s="129"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="128"/>
       <c r="C52" s="126"/>
       <c r="D52" s="126"/>
@@ -4708,13 +4594,13 @@
         <v>845.89</v>
       </c>
       <c r="G52" s="149" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H52" s="126"/>
       <c r="I52" s="126"/>
       <c r="J52" s="129"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="128"/>
       <c r="C53" s="126"/>
       <c r="D53" s="126"/>
@@ -4725,7 +4611,7 @@
       <c r="I53" s="126"/>
       <c r="J53" s="129"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="128"/>
       <c r="C54" s="126"/>
       <c r="D54" s="126"/>
@@ -4736,7 +4622,7 @@
       <c r="I54" s="126"/>
       <c r="J54" s="129"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="128"/>
       <c r="C55" s="126"/>
       <c r="D55" s="126"/>
@@ -4747,7 +4633,7 @@
       <c r="I55" s="126"/>
       <c r="J55" s="129"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="128"/>
       <c r="C56" s="126"/>
       <c r="D56" s="126"/>
@@ -4758,7 +4644,7 @@
       <c r="I56" s="126"/>
       <c r="J56" s="129"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="128"/>
       <c r="C57" s="126"/>
       <c r="D57" s="126"/>
@@ -4769,7 +4655,7 @@
       <c r="I57" s="126"/>
       <c r="J57" s="129"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="128"/>
       <c r="C58" s="126"/>
       <c r="D58" s="126"/>
@@ -4780,7 +4666,7 @@
       <c r="I58" s="126"/>
       <c r="J58" s="129"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="128"/>
       <c r="C59" s="126"/>
       <c r="D59" s="126"/>
@@ -4791,7 +4677,7 @@
       <c r="I59" s="126"/>
       <c r="J59" s="129"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="128"/>
       <c r="C60" s="126"/>
       <c r="D60" s="126"/>
@@ -4802,7 +4688,7 @@
       <c r="I60" s="126"/>
       <c r="J60" s="129"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="128"/>
       <c r="C61" s="126"/>
       <c r="D61" s="126"/>
@@ -4813,7 +4699,7 @@
       <c r="I61" s="126"/>
       <c r="J61" s="129"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="128"/>
       <c r="C62" s="126"/>
       <c r="D62" s="126"/>
@@ -4824,7 +4710,7 @@
       <c r="I62" s="126"/>
       <c r="J62" s="129"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="128"/>
       <c r="C63" s="126"/>
       <c r="D63" s="126"/>
@@ -4835,7 +4721,7 @@
       <c r="I63" s="126"/>
       <c r="J63" s="129"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="128"/>
       <c r="C64" s="126"/>
       <c r="D64" s="126"/>
@@ -4846,7 +4732,7 @@
       <c r="I64" s="126"/>
       <c r="J64" s="129"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="128"/>
       <c r="C65" s="126"/>
       <c r="D65" s="126"/>
@@ -4857,7 +4743,7 @@
       <c r="I65" s="126"/>
       <c r="J65" s="129"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="128"/>
       <c r="C66" s="126"/>
       <c r="D66" s="126"/>
@@ -4868,10 +4754,10 @@
       <c r="I66" s="126"/>
       <c r="J66" s="129"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67" s="128"/>
       <c r="C67" s="141" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D67" s="126"/>
       <c r="E67" s="126"/>
@@ -4881,7 +4767,7 @@
       <c r="I67" s="126"/>
       <c r="J67" s="129"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68" s="128"/>
       <c r="C68" s="126"/>
       <c r="D68" s="126"/>
@@ -4892,7 +4778,7 @@
       <c r="I68" s="126"/>
       <c r="J68" s="129"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69" s="128"/>
       <c r="C69" s="126"/>
       <c r="D69" s="126"/>
@@ -4907,7 +4793,7 @@
       <c r="I69" s="126"/>
       <c r="J69" s="129"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="128"/>
       <c r="C70" s="126"/>
       <c r="D70" s="126"/>
@@ -4918,7 +4804,7 @@
       <c r="I70" s="126"/>
       <c r="J70" s="129"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="128"/>
       <c r="C71" s="126"/>
       <c r="D71" s="126"/>
@@ -4929,7 +4815,7 @@
       <c r="I71" s="126"/>
       <c r="J71" s="129"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="128"/>
       <c r="C72" s="126"/>
       <c r="D72" s="126"/>
@@ -4940,7 +4826,7 @@
       <c r="I72" s="126"/>
       <c r="J72" s="129"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="128"/>
       <c r="C73" s="126"/>
       <c r="D73" s="126"/>
@@ -4951,7 +4837,7 @@
       <c r="I73" s="126"/>
       <c r="J73" s="129"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="128"/>
       <c r="C74" s="126"/>
       <c r="D74" s="126"/>
@@ -4962,7 +4848,7 @@
       <c r="I74" s="126"/>
       <c r="J74" s="129"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75" s="128"/>
       <c r="C75" s="126"/>
       <c r="D75" s="126"/>
@@ -4973,7 +4859,7 @@
       <c r="I75" s="126"/>
       <c r="J75" s="129"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76" s="128"/>
       <c r="C76" s="126"/>
       <c r="D76" s="126"/>
@@ -4984,7 +4870,7 @@
       <c r="I76" s="126"/>
       <c r="J76" s="129"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77" s="128"/>
       <c r="C77" s="126"/>
       <c r="D77" s="126"/>
@@ -4995,7 +4881,7 @@
       <c r="I77" s="126"/>
       <c r="J77" s="129"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="128"/>
       <c r="C78" s="126"/>
       <c r="D78" s="126"/>
@@ -5006,7 +4892,7 @@
       <c r="I78" s="126"/>
       <c r="J78" s="129"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79" s="128"/>
       <c r="C79" s="126"/>
       <c r="D79" s="126"/>
@@ -5017,7 +4903,7 @@
       <c r="I79" s="126"/>
       <c r="J79" s="129"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80" s="128"/>
       <c r="C80" s="126"/>
       <c r="D80" s="126"/>
@@ -5028,7 +4914,7 @@
       <c r="I80" s="126"/>
       <c r="J80" s="129"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="128"/>
       <c r="C81" s="126"/>
       <c r="D81" s="126"/>
@@ -5039,7 +4925,7 @@
       <c r="I81" s="126"/>
       <c r="J81" s="129"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82" s="128"/>
       <c r="C82" s="126"/>
       <c r="D82" s="126"/>
@@ -5050,7 +4936,7 @@
       <c r="I82" s="126"/>
       <c r="J82" s="129"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83" s="128"/>
       <c r="C83" s="126"/>
       <c r="D83" s="126"/>
@@ -5060,12 +4946,12 @@
         <v>23.1</v>
       </c>
       <c r="H83" s="149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I83" s="126"/>
       <c r="J83" s="129"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84" s="128"/>
       <c r="C84" s="126"/>
       <c r="D84" s="126"/>
@@ -5076,7 +4962,7 @@
       <c r="I84" s="126"/>
       <c r="J84" s="129"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85" s="128"/>
       <c r="C85" s="126"/>
       <c r="D85" s="126"/>
@@ -5087,7 +4973,7 @@
       <c r="I85" s="126"/>
       <c r="J85" s="129"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86" s="128"/>
       <c r="C86" s="126"/>
       <c r="D86" s="126"/>
@@ -5098,7 +4984,7 @@
       <c r="I86" s="126"/>
       <c r="J86" s="129"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" s="128"/>
       <c r="C87" s="126"/>
       <c r="D87" s="126"/>
@@ -5109,7 +4995,7 @@
       <c r="I87" s="126"/>
       <c r="J87" s="129"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" s="128"/>
       <c r="C88" s="126"/>
       <c r="D88" s="126"/>
@@ -5120,7 +5006,7 @@
       <c r="I88" s="126"/>
       <c r="J88" s="129"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" s="128"/>
       <c r="C89" s="126"/>
       <c r="D89" s="126"/>
@@ -5131,7 +5017,7 @@
       <c r="I89" s="126"/>
       <c r="J89" s="129"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90" s="128"/>
       <c r="C90" s="126"/>
       <c r="D90" s="126"/>
@@ -5146,7 +5032,7 @@
       <c r="I90" s="126"/>
       <c r="J90" s="129"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91" s="128"/>
       <c r="C91" s="126"/>
       <c r="D91" s="126"/>
@@ -5157,7 +5043,7 @@
       <c r="I91" s="126"/>
       <c r="J91" s="129"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92" s="128"/>
       <c r="C92" s="126"/>
       <c r="D92" s="126"/>
@@ -5168,7 +5054,7 @@
       <c r="I92" s="126"/>
       <c r="J92" s="129"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93" s="128"/>
       <c r="C93" s="126"/>
       <c r="D93" s="126"/>
@@ -5179,7 +5065,7 @@
       <c r="I93" s="126"/>
       <c r="J93" s="129"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="128"/>
       <c r="C94" s="126"/>
       <c r="D94" s="126"/>
@@ -5190,7 +5076,7 @@
       <c r="I94" s="126"/>
       <c r="J94" s="129"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="128"/>
       <c r="C95" s="126"/>
       <c r="D95" s="126"/>
@@ -5201,7 +5087,7 @@
       <c r="I95" s="126"/>
       <c r="J95" s="129"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" s="128"/>
       <c r="C96" s="126"/>
       <c r="D96" s="126"/>
@@ -5212,7 +5098,7 @@
       <c r="I96" s="126"/>
       <c r="J96" s="129"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="128"/>
       <c r="C97" s="126"/>
       <c r="D97" s="126"/>
@@ -5223,7 +5109,7 @@
       <c r="I97" s="126"/>
       <c r="J97" s="129"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="128"/>
       <c r="C98" s="126"/>
       <c r="D98" s="126"/>
@@ -5234,7 +5120,7 @@
       <c r="I98" s="126"/>
       <c r="J98" s="129"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="128"/>
       <c r="C99" s="126"/>
       <c r="D99" s="126"/>
@@ -5245,7 +5131,7 @@
       <c r="I99" s="126"/>
       <c r="J99" s="129"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="128"/>
       <c r="C100" s="126"/>
       <c r="D100" s="126"/>
@@ -5256,7 +5142,7 @@
       <c r="I100" s="126"/>
       <c r="J100" s="129"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="128"/>
       <c r="C101" s="126"/>
       <c r="D101" s="126"/>
@@ -5267,7 +5153,7 @@
       <c r="I101" s="126"/>
       <c r="J101" s="129"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="128"/>
       <c r="C102" s="126"/>
       <c r="D102" s="126"/>
@@ -5278,7 +5164,7 @@
       <c r="I102" s="126"/>
       <c r="J102" s="129"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="128"/>
       <c r="C103" s="126"/>
       <c r="D103" s="126"/>
@@ -5289,7 +5175,7 @@
       <c r="I103" s="126"/>
       <c r="J103" s="129"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104" s="128"/>
       <c r="C104" s="126"/>
       <c r="D104" s="126"/>
@@ -5300,7 +5186,7 @@
       <c r="I104" s="126"/>
       <c r="J104" s="129"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105" s="128"/>
       <c r="C105" s="126"/>
       <c r="D105" s="126"/>
@@ -5311,7 +5197,7 @@
       <c r="I105" s="126"/>
       <c r="J105" s="129"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106" s="128"/>
       <c r="C106" s="126"/>
       <c r="D106" s="126"/>
@@ -5322,7 +5208,7 @@
       <c r="I106" s="126"/>
       <c r="J106" s="129"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107" s="128"/>
       <c r="C107" s="126"/>
       <c r="D107" s="126"/>
@@ -5332,12 +5218,12 @@
         <v>22.4</v>
       </c>
       <c r="H107" s="149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I107" s="126"/>
       <c r="J107" s="129"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108" s="128"/>
       <c r="C108" s="126"/>
       <c r="D108" s="126"/>
@@ -5348,7 +5234,7 @@
       <c r="I108" s="126"/>
       <c r="J108" s="129"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109" s="128"/>
       <c r="C109" s="126"/>
       <c r="D109" s="126"/>
@@ -5359,7 +5245,7 @@
       <c r="I109" s="126"/>
       <c r="J109" s="129"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110" s="128"/>
       <c r="C110" s="126"/>
       <c r="D110" s="126"/>
@@ -5370,7 +5256,7 @@
       <c r="I110" s="126"/>
       <c r="J110" s="129"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111" s="128"/>
       <c r="C111" s="126"/>
       <c r="D111" s="126"/>
@@ -5381,7 +5267,7 @@
       <c r="I111" s="126"/>
       <c r="J111" s="129"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112" s="128"/>
       <c r="C112" s="126"/>
       <c r="D112" s="126"/>
@@ -5392,7 +5278,7 @@
       <c r="I112" s="126"/>
       <c r="J112" s="129"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B113" s="128"/>
       <c r="C113" s="126"/>
       <c r="D113" s="126"/>
@@ -5403,7 +5289,7 @@
       <c r="I113" s="126"/>
       <c r="J113" s="129"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B114" s="128"/>
       <c r="C114" s="126"/>
       <c r="D114" s="126"/>
@@ -5414,7 +5300,7 @@
       <c r="I114" s="126"/>
       <c r="J114" s="129"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B115" s="128"/>
       <c r="C115" s="126"/>
       <c r="D115" s="126"/>
@@ -5425,7 +5311,7 @@
       <c r="I115" s="126"/>
       <c r="J115" s="129"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B116" s="128"/>
       <c r="C116" s="126"/>
       <c r="D116" s="126"/>
@@ -5440,7 +5326,7 @@
       <c r="I116" s="126"/>
       <c r="J116" s="129"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B117" s="128"/>
       <c r="C117" s="126"/>
       <c r="D117" s="126"/>
@@ -5451,7 +5337,7 @@
       <c r="I117" s="126"/>
       <c r="J117" s="129"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B118" s="128"/>
       <c r="C118" s="126"/>
       <c r="D118" s="126"/>
@@ -5462,7 +5348,7 @@
       <c r="I118" s="126"/>
       <c r="J118" s="129"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B119" s="128"/>
       <c r="C119" s="126"/>
       <c r="D119" s="126"/>
@@ -5473,7 +5359,7 @@
       <c r="I119" s="126"/>
       <c r="J119" s="129"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B120" s="128"/>
       <c r="C120" s="126"/>
       <c r="D120" s="126"/>
@@ -5484,7 +5370,7 @@
       <c r="I120" s="126"/>
       <c r="J120" s="129"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B121" s="128"/>
       <c r="C121" s="126"/>
       <c r="D121" s="126"/>
@@ -5495,7 +5381,7 @@
       <c r="I121" s="126"/>
       <c r="J121" s="129"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B122" s="128"/>
       <c r="C122" s="126"/>
       <c r="D122" s="126"/>
@@ -5506,7 +5392,7 @@
       <c r="I122" s="126"/>
       <c r="J122" s="129"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B123" s="128"/>
       <c r="C123" s="126"/>
       <c r="D123" s="126"/>
@@ -5517,7 +5403,7 @@
       <c r="I123" s="126"/>
       <c r="J123" s="129"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B124" s="128"/>
       <c r="C124" s="126"/>
       <c r="D124" s="126"/>
@@ -5528,7 +5414,7 @@
       <c r="I124" s="126"/>
       <c r="J124" s="129"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B125" s="128"/>
       <c r="C125" s="126"/>
       <c r="D125" s="126"/>
@@ -5539,7 +5425,7 @@
       <c r="I125" s="126"/>
       <c r="J125" s="129"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B126" s="128"/>
       <c r="C126" s="126"/>
       <c r="D126" s="126"/>
@@ -5550,7 +5436,7 @@
       <c r="I126" s="126"/>
       <c r="J126" s="129"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B127" s="128"/>
       <c r="C127" s="126"/>
       <c r="D127" s="126"/>
@@ -5561,7 +5447,7 @@
       <c r="I127" s="126"/>
       <c r="J127" s="129"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B128" s="128"/>
       <c r="C128" s="126"/>
       <c r="D128" s="126"/>
@@ -5572,7 +5458,7 @@
       <c r="I128" s="126"/>
       <c r="J128" s="129"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B129" s="128"/>
       <c r="C129" s="126"/>
       <c r="D129" s="126"/>
@@ -5583,7 +5469,7 @@
       <c r="I129" s="126"/>
       <c r="J129" s="129"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B130" s="128"/>
       <c r="C130" s="126"/>
       <c r="D130" s="126"/>
@@ -5594,7 +5480,7 @@
       <c r="I130" s="126"/>
       <c r="J130" s="129"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="128"/>
       <c r="C131" s="126"/>
       <c r="D131" s="126"/>
@@ -5605,7 +5491,7 @@
       <c r="I131" s="126"/>
       <c r="J131" s="129"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="128"/>
       <c r="C132" s="126"/>
       <c r="D132" s="126"/>
@@ -5616,7 +5502,7 @@
       <c r="I132" s="126"/>
       <c r="J132" s="129"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B133" s="128"/>
       <c r="C133" s="126"/>
       <c r="D133" s="126"/>
@@ -5626,12 +5512,12 @@
         <v>21.9</v>
       </c>
       <c r="H133" s="149" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I133" s="126"/>
       <c r="J133" s="129"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B134" s="128"/>
       <c r="C134" s="126"/>
       <c r="D134" s="126"/>
@@ -5642,7 +5528,7 @@
       <c r="I134" s="126"/>
       <c r="J134" s="129"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="128"/>
       <c r="C135" s="126"/>
       <c r="D135" s="126"/>
@@ -5653,7 +5539,7 @@
       <c r="I135" s="126"/>
       <c r="J135" s="129"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="128"/>
       <c r="C136" s="126"/>
       <c r="D136" s="126"/>
@@ -5667,10 +5553,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/households/households_water_heater_combined_network_gas.converter.xlsx
+++ b/nodes_source_analyses/households/households_water_heater_combined_network_gas.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/households/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/households/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007A682F-6EB8-1F47-B477-5BFFC666C16B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="119">
   <si>
     <t>Source</t>
   </si>
@@ -448,17 +455,23 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no costs to avoid double counting </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * #,##0.00\-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -603,6 +616,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,6 +624,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,6 +632,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,6 +640,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,6 +648,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -638,17 +656,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,7 +683,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1418,7 +1446,6 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1472,6 +1499,7 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1762,6 +1790,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1783,7 +1814,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1821,7 +1858,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1858,7 +1901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1896,7 +1945,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1934,7 +1989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1972,7 +2033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2010,7 +2077,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2470,38 +2543,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="18"/>
+    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
@@ -2510,7 +2583,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -2519,7 +2592,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2528,29 +2601,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="88" t="s">
         <v>67</v>
       </c>
       <c r="C9" s="89"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="90" t="s">
         <v>68</v>
@@ -2559,33 +2632,33 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="90"/>
       <c r="C12" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="90" t="s">
         <v>73</v>
@@ -2594,49 +2667,49 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>81</v>
@@ -2649,38 +2722,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="43.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="43.33203125" style="34" customWidth="1"/>
     <col min="10" max="10" width="3" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="34"/>
+    <col min="11" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="151" t="s">
         <v>116</v>
       </c>
@@ -2690,7 +2763,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="154"/>
       <c r="C3" s="155"/>
       <c r="D3" s="155"/>
@@ -2698,7 +2771,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" ht="44" customHeight="1">
       <c r="B4" s="157"/>
       <c r="C4" s="158"/>
       <c r="D4" s="158"/>
@@ -2706,10 +2779,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2720,7 +2793,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B7" s="103"/>
       <c r="C7" s="15" t="s">
         <v>30</v>
@@ -2741,7 +2814,7 @@
       </c>
       <c r="J7" s="109"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2752,7 +2825,7 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
         <v>109</v>
@@ -2765,9 +2838,9 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="20"/>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="130" t="s">
         <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
@@ -2780,12 +2853,12 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="27"/>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="142" t="s">
         <v>107</v>
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" ht="17" thickBot="1">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>32</v>
@@ -2805,7 +2878,7 @@
       <c r="J11" s="110"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -2825,7 +2898,7 @@
       <c r="J12" s="110"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>9</v>
@@ -2845,7 +2918,7 @@
       <c r="J13" s="110"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -2865,7 +2938,7 @@
       <c r="J14" s="110"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>38</v>
@@ -2885,7 +2958,7 @@
       <c r="J15" s="110"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>39</v>
@@ -2906,7 +2979,7 @@
       </c>
       <c r="J16" s="110"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>40</v>
@@ -2914,7 +2987,7 @@
       <c r="D17" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="132">
+      <c r="E17" s="131">
         <f>'Research data'!G6</f>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -2928,7 +3001,7 @@
       </c>
       <c r="J17" s="110"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="37"/>
       <c r="C18" s="85"/>
       <c r="D18" s="106"/>
@@ -2939,7 +3012,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="110"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
         <v>82</v>
@@ -2952,7 +3025,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="110"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>41</v>
@@ -2962,19 +3035,19 @@
       </c>
       <c r="E20" s="43">
         <f>'Research data'!G13</f>
-        <v>903.28</v>
+        <v>0</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="33"/>
-      <c r="I20" s="143" t="s">
-        <v>107</v>
+      <c r="I20" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J20" s="110"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>42</v>
@@ -2990,12 +3063,12 @@
         <v>54</v>
       </c>
       <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
-        <v>52</v>
+      <c r="I21" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J21" s="110"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -3011,12 +3084,12 @@
         <v>23</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="31" t="s">
-        <v>52</v>
+      <c r="I22" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J22" s="110"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>43</v>
@@ -3032,12 +3105,12 @@
         <v>26</v>
       </c>
       <c r="H23" s="33"/>
-      <c r="I23" s="31" t="s">
-        <v>52</v>
+      <c r="I23" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J23" s="110"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>44</v>
@@ -3045,21 +3118,21 @@
       <c r="D24" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="146">
+      <c r="E24" s="145">
         <f>'Research data'!G14</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H24" s="33"/>
-      <c r="I24" s="31" t="s">
-        <v>52</v>
+      <c r="I24" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J24" s="110"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>45</v>
@@ -3075,12 +3148,12 @@
         <v>56</v>
       </c>
       <c r="H25" s="33"/>
-      <c r="I25" s="117" t="s">
-        <v>52</v>
+      <c r="I25" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J25" s="110"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -3088,7 +3161,7 @@
       <c r="D26" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="147">
+      <c r="E26" s="146">
         <v>0</v>
       </c>
       <c r="F26" s="33"/>
@@ -3096,12 +3169,12 @@
         <v>57</v>
       </c>
       <c r="H26" s="33"/>
-      <c r="I26" s="117" t="s">
-        <v>52</v>
+      <c r="I26" s="142" t="s">
+        <v>118</v>
       </c>
       <c r="J26" s="110"/>
     </row>
-    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="17" thickBot="1">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -3110,19 +3183,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="43">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="33"/>
-      <c r="I27" s="31" t="s">
-        <v>52</v>
+      <c r="I27" s="150" t="s">
+        <v>117</v>
       </c>
       <c r="J27" s="110"/>
     </row>
-    <row r="28" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="17" thickBot="1">
       <c r="B28" s="37"/>
       <c r="C28" s="33" t="s">
         <v>36</v>
@@ -3136,12 +3209,12 @@
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
-      <c r="I28" s="137" t="s">
+      <c r="I28" s="136" t="s">
         <v>52</v>
       </c>
       <c r="J28" s="110"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10">
       <c r="B29" s="37"/>
       <c r="C29" s="33"/>
       <c r="D29" s="19"/>
@@ -3152,7 +3225,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="110"/>
     </row>
-    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="17" thickBot="1">
       <c r="B30" s="37"/>
       <c r="C30" s="14" t="s">
         <v>7</v>
@@ -3165,7 +3238,7 @@
       <c r="I30" s="32"/>
       <c r="J30" s="110"/>
     </row>
-    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="17" thickBot="1">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>35</v>
@@ -3181,12 +3254,12 @@
         <v>14</v>
       </c>
       <c r="H31" s="33"/>
-      <c r="I31" s="120" t="s">
+      <c r="I31" s="119" t="s">
         <v>52</v>
       </c>
       <c r="J31" s="110"/>
     </row>
-    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="17" thickBot="1">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>47</v>
@@ -3202,12 +3275,12 @@
         <v>25</v>
       </c>
       <c r="H32" s="33"/>
-      <c r="I32" s="122" t="s">
+      <c r="I32" s="121" t="s">
         <v>52</v>
       </c>
       <c r="J32" s="110"/>
     </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>48</v>
@@ -3215,7 +3288,7 @@
       <c r="D33" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E33" s="148">
+      <c r="E33" s="147">
         <f>'Research data'!G10</f>
         <v>15</v>
       </c>
@@ -3224,12 +3297,12 @@
         <v>24</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="150" t="s">
+      <c r="I33" s="149" t="s">
         <v>96</v>
       </c>
       <c r="J33" s="110"/>
     </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="37"/>
       <c r="C34" s="33" t="s">
         <v>33</v>
@@ -3248,7 +3321,7 @@
       </c>
       <c r="J34" s="110"/>
     </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="37"/>
       <c r="C35" s="45" t="s">
         <v>59</v>
@@ -3265,7 +3338,7 @@
       </c>
       <c r="J35" s="110"/>
     </row>
-    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="37"/>
       <c r="C36" s="45" t="s">
         <v>60</v>
@@ -3282,7 +3355,7 @@
       </c>
       <c r="J36" s="110"/>
     </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="37"/>
       <c r="C37" s="45" t="s">
         <v>62</v>
@@ -3299,7 +3372,7 @@
       </c>
       <c r="J37" s="110"/>
     </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="37"/>
       <c r="C38" s="45" t="s">
         <v>63</v>
@@ -3316,7 +3389,7 @@
       </c>
       <c r="J38" s="110"/>
     </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="37"/>
       <c r="C39" s="45" t="s">
         <v>61</v>
@@ -3333,7 +3406,7 @@
       </c>
       <c r="J39" s="110"/>
     </row>
-    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B40" s="38"/>
       <c r="C40" s="39"/>
       <c r="D40" s="39"/>
@@ -3354,37 +3427,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="70" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="70" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="70" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="70" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="70" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="70" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="70" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="71" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="71" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="71" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="71" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="71" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" style="71" customWidth="1"/>
-    <col min="15" max="15" width="68.5703125" style="70" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="70"/>
+    <col min="1" max="2" width="3.5" style="70" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="70" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="70" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="70" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="70" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="71" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" style="71" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="71" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="71" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="71" customWidth="1"/>
+    <col min="14" max="14" width="2.5" style="71" customWidth="1"/>
+    <col min="15" max="15" width="68.5" style="70" customWidth="1"/>
+    <col min="16" max="16384" width="10.6640625" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="17" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="72"/>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -3400,7 +3473,7 @@
       <c r="N2" s="74"/>
       <c r="O2" s="73"/>
     </row>
-    <row r="3" spans="2:15" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="21" customFormat="1">
       <c r="B3" s="20"/>
       <c r="C3" s="114" t="s">
         <v>84</v>
@@ -3430,7 +3503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4" s="75"/>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -3444,9 +3517,9 @@
       <c r="L4" s="113"/>
       <c r="M4" s="113"/>
       <c r="N4" s="113"/>
-      <c r="O4" s="135"/>
-    </row>
-    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="134"/>
+    </row>
+    <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="75"/>
       <c r="C5" s="29" t="s">
         <v>83</v>
@@ -3464,9 +3537,9 @@
       <c r="N5" s="10"/>
       <c r="O5" s="69"/>
     </row>
-    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="75"/>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="78"/>
@@ -3474,30 +3547,30 @@
       <c r="F6" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="129">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="H6" s="80"/>
-      <c r="I6" s="130">
+      <c r="I6" s="129">
         <f>Notes!G83/1000</f>
         <v>2.3100000000000002E-2</v>
       </c>
       <c r="J6" s="77"/>
-      <c r="K6" s="130">
+      <c r="K6" s="129">
         <f>Notes!G107/1000</f>
         <v>2.24E-2</v>
       </c>
       <c r="L6" s="77"/>
-      <c r="M6" s="130">
+      <c r="M6" s="129">
         <f>Notes!G133/1000</f>
         <v>2.1899999999999999E-2</v>
       </c>
       <c r="N6" s="77"/>
       <c r="O6" s="69"/>
     </row>
-    <row r="7" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="17" thickBot="1">
       <c r="B7" s="75"/>
-      <c r="C7" s="134" t="s">
+      <c r="C7" s="133" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="78"/>
@@ -3510,26 +3583,26 @@
         <v>90</v>
       </c>
       <c r="H7" s="77"/>
-      <c r="I7" s="138">
+      <c r="I7" s="137">
         <f>Notes!G69</f>
         <v>90.1</v>
       </c>
-      <c r="J7" s="121"/>
-      <c r="K7" s="138">
+      <c r="J7" s="120"/>
+      <c r="K7" s="137">
         <f>Notes!G90</f>
         <v>91.1</v>
       </c>
       <c r="L7" s="81"/>
-      <c r="M7" s="138">
+      <c r="M7" s="137">
         <f>Notes!G116</f>
         <v>90.2</v>
       </c>
       <c r="N7" s="81"/>
-      <c r="O7" s="140" t="s">
+      <c r="O7" s="139" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8" s="75"/>
       <c r="C8" s="84"/>
       <c r="D8" s="84"/>
@@ -3543,11 +3616,11 @@
       <c r="L8" s="82"/>
       <c r="M8" s="82"/>
       <c r="N8" s="82"/>
-      <c r="O8" s="142" t="s">
+      <c r="O8" s="141" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="17" thickBot="1">
       <c r="B9" s="75"/>
       <c r="C9" s="29" t="s">
         <v>7</v>
@@ -3565,7 +3638,7 @@
       <c r="N9" s="12"/>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="17" thickBot="1">
       <c r="B10" s="75"/>
       <c r="C10" s="86" t="s">
         <v>5</v>
@@ -3575,12 +3648,12 @@
       <c r="F10" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="133">
+      <c r="G10" s="132">
         <f>ROUND(15,0)</f>
         <v>15</v>
       </c>
       <c r="H10" s="82"/>
-      <c r="I10" s="133">
+      <c r="I10" s="132">
         <f>Notes!F28</f>
         <v>15</v>
       </c>
@@ -3589,9 +3662,9 @@
       <c r="L10" s="83"/>
       <c r="M10" s="83"/>
       <c r="N10" s="83"/>
-      <c r="O10" s="119"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="118"/>
+    </row>
+    <row r="11" spans="2:15">
       <c r="B11" s="75"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3607,7 +3680,7 @@
       <c r="N11" s="83"/>
       <c r="O11" s="69"/>
     </row>
-    <row r="12" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="17" thickBot="1">
       <c r="B12" s="75"/>
       <c r="C12" s="13" t="s">
         <v>85</v>
@@ -3623,11 +3696,11 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="140" t="s">
+      <c r="O12" s="139" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="17" thickBot="1">
       <c r="B13" s="75"/>
       <c r="C13" s="111" t="s">
         <v>86</v>
@@ -3637,22 +3710,21 @@
       <c r="F13" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="144">
-        <f>ROUND(AVERAGE(I13,K13,M13),2)</f>
-        <v>903.28</v>
+      <c r="G13" s="143">
+        <v>0</v>
       </c>
       <c r="H13" s="12"/>
-      <c r="I13" s="144">
+      <c r="I13" s="143">
         <f>Notes!F12</f>
         <v>799</v>
       </c>
       <c r="J13" s="82"/>
-      <c r="K13" s="145">
+      <c r="K13" s="144">
         <f>Notes!F34</f>
         <v>1064.95</v>
       </c>
       <c r="L13" s="82"/>
-      <c r="M13" s="144">
+      <c r="M13" s="143">
         <f>Notes!F52</f>
         <v>845.89</v>
       </c>
@@ -3661,9 +3733,9 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="17" thickBot="1">
       <c r="B14" s="75"/>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="117" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="29"/>
@@ -3671,9 +3743,8 @@
       <c r="F14" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="144">
-        <f>ROUND(98,2)</f>
-        <v>98</v>
+      <c r="G14" s="143">
+        <v>0</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="82"/>
@@ -3682,12 +3753,12 @@
       <c r="L14" s="82"/>
       <c r="M14" s="82"/>
       <c r="N14" s="82"/>
-      <c r="O14" s="136"/>
+      <c r="O14" s="135"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O13" r:id="rId1"/>
-    <hyperlink ref="O8" r:id="rId2"/>
+    <hyperlink ref="O13" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="O8" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3695,8 +3766,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K19"/>
@@ -3705,22 +3776,22 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="46" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="46" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="46" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="46" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="46" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="46" customWidth="1"/>
     <col min="10" max="10" width="12" style="47" customWidth="1"/>
-    <col min="11" max="11" width="39.5703125" style="46" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="46"/>
+    <col min="11" max="11" width="39.5" style="46" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="48"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -3732,7 +3803,7 @@
       <c r="J2" s="50"/>
       <c r="K2" s="49"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>21</v>
@@ -3746,7 +3817,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="51"/>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -3758,7 +3829,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="56"/>
       <c r="C5" s="57" t="s">
         <v>28</v>
@@ -3786,7 +3857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51"/>
       <c r="C6" s="52"/>
       <c r="D6" s="52"/>
@@ -3798,7 +3869,7 @@
       <c r="J6" s="53"/>
       <c r="K6" s="52"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51"/>
       <c r="C7" s="52"/>
       <c r="D7" s="52"/>
@@ -3814,7 +3885,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="52"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="51"/>
       <c r="C8" s="60" t="s">
         <v>95</v>
@@ -3832,7 +3903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51"/>
       <c r="C9" s="59" t="s">
         <v>65</v>
@@ -3850,7 +3921,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
@@ -3862,7 +3933,7 @@
       <c r="J10" s="55"/>
       <c r="K10" s="68"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="17">
       <c r="B11" s="51"/>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
@@ -3880,7 +3951,7 @@
       <c r="J11" s="55"/>
       <c r="K11" s="68"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51"/>
       <c r="C12" s="60" t="s">
         <v>95</v>
@@ -3896,7 +3967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51"/>
       <c r="C13" s="60"/>
       <c r="D13" s="64"/>
@@ -3908,7 +3979,7 @@
       <c r="J13" s="62"/>
       <c r="K13" s="59"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" ht="17">
       <c r="B14" s="51"/>
       <c r="C14" s="59"/>
       <c r="D14" s="64"/>
@@ -3926,7 +3997,7 @@
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51"/>
       <c r="C15" s="60" t="s">
         <v>95</v>
@@ -3942,7 +4013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="51"/>
       <c r="C16" s="60"/>
       <c r="D16" s="64"/>
@@ -3954,7 +4025,7 @@
       <c r="J16" s="62"/>
       <c r="K16" s="59"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" ht="17">
       <c r="B17" s="51"/>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
@@ -3974,7 +4045,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11">
       <c r="B18" s="51"/>
       <c r="C18" s="60" t="s">
         <v>88</v>
@@ -3987,7 +4058,7 @@
       <c r="J18" s="62"/>
       <c r="K18" s="59"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="51"/>
       <c r="C19" s="84" t="s">
         <v>5</v>
@@ -4007,8 +4078,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="0" tint="-0.14999847407452621"/>
   </sheetPr>
   <dimension ref="B2:J136"/>
@@ -4017,19 +4088,19 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="123" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="123" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="123" customWidth="1"/>
-    <col min="4" max="9" width="10.7109375" style="123"/>
-    <col min="10" max="10" width="53" style="123" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="123"/>
+    <col min="1" max="1" width="3.5" style="122" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="122" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="122" customWidth="1"/>
+    <col min="4" max="9" width="10.6640625" style="122"/>
+    <col min="10" max="10" width="53" style="122" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="122"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="124"/>
+    <row r="2" spans="2:10" ht="17" thickBot="1"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="123"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -4037,9 +4108,9 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="125"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J3" s="124"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="103"/>
       <c r="C4" s="15" t="s">
         <v>0</v>
@@ -4052,1503 +4123,1503 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
-      <c r="J4" s="127"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="128"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="129"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="128"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="129"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="128"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="128"/>
-      <c r="C8" s="141" t="s">
+      <c r="J4" s="126"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="127"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="128"/>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="127"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="125"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="128"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="127"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="127"/>
+      <c r="C8" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="129"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="128"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="129"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="128"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="129"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="128"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="129"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="128"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126">
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="128"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="127"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="125"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="128"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="127"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="128"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="127"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="127"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125">
         <v>799</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="129"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="128"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="129"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="128"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="129"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="128"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="129"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="128"/>
-      <c r="C16" s="126"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="126"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="129"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="128"/>
-      <c r="C17" s="126"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="126"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="129"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="128"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="129"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="128"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="129"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="128"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="129"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="128"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="129"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="128"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="126"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="126"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="129"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="128"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="129"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="128"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="126"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="129"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="128"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="129"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="128"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="126"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="126"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="126"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="129"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="128"/>
-      <c r="C27" s="126"/>
-      <c r="D27" s="126"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="126"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="129"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="128"/>
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126">
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="128"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="127"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="128"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="127"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="128"/>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="127"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="128"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="127"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="128"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="127"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="128"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="127"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="125"/>
+      <c r="J18" s="128"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="127"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="128"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="127"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="128"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="127"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="128"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="127"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="125"/>
+      <c r="J22" s="128"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="127"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="127"/>
+      <c r="C24" s="125"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="125"/>
+      <c r="J24" s="128"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="127"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="128"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="127"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="128"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" s="127"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="125"/>
+      <c r="J27" s="128"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" s="127"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="125"/>
+      <c r="F28" s="125">
         <v>15</v>
       </c>
-      <c r="G28" s="149" t="s">
+      <c r="G28" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="129"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="128"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="129"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="128"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="126"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="129"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="128"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="129"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="128"/>
-      <c r="C32" s="126"/>
-      <c r="D32" s="126"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="126"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="126"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="129"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="128"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="126"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="129"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="128"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="126"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="126">
+      <c r="H28" s="125"/>
+      <c r="I28" s="125"/>
+      <c r="J28" s="128"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="127"/>
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="128"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="127"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="128"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="127"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="128"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" s="127"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="128"/>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="127"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="125"/>
+      <c r="J33" s="128"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="127"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125">
         <v>1064.95</v>
       </c>
-      <c r="G34" s="149" t="s">
+      <c r="G34" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="H34" s="126"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="129"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="128"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="129"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="128"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="126"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="126"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="126"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="129"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="128"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="129"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="128"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="126"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="126"/>
-      <c r="H38" s="126"/>
-      <c r="I38" s="126"/>
-      <c r="J38" s="129"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="128"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="126"/>
-      <c r="F39" s="126"/>
-      <c r="G39" s="126"/>
-      <c r="H39" s="126"/>
-      <c r="I39" s="126"/>
-      <c r="J39" s="129"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="128"/>
-      <c r="C40" s="126"/>
-      <c r="D40" s="126"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
-      <c r="J40" s="129"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="128"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="129"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="128"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="129"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="128"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="129"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="128"/>
-      <c r="C44" s="126"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="129"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="128"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="126"/>
-      <c r="F45" s="126"/>
-      <c r="G45" s="126"/>
-      <c r="H45" s="126"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="129"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="128"/>
-      <c r="C46" s="126"/>
-      <c r="D46" s="126"/>
-      <c r="E46" s="126"/>
-      <c r="F46" s="126"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="126"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="129"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="128"/>
-      <c r="C47" s="126"/>
-      <c r="D47" s="126"/>
-      <c r="E47" s="126"/>
-      <c r="F47" s="126"/>
-      <c r="G47" s="126"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="126"/>
-      <c r="J47" s="129"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="128"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="126"/>
-      <c r="H48" s="126"/>
-      <c r="I48" s="126"/>
-      <c r="J48" s="129"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="128"/>
-      <c r="C49" s="126"/>
-      <c r="D49" s="126"/>
-      <c r="E49" s="126"/>
-      <c r="F49" s="126"/>
-      <c r="G49" s="126"/>
-      <c r="H49" s="126"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="129"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="128"/>
-      <c r="C50" s="126"/>
-      <c r="D50" s="126"/>
-      <c r="E50" s="126"/>
-      <c r="F50" s="126"/>
-      <c r="G50" s="126"/>
-      <c r="H50" s="126"/>
-      <c r="I50" s="126"/>
-      <c r="J50" s="129"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="128"/>
-      <c r="C51" s="126"/>
-      <c r="D51" s="126"/>
-      <c r="E51" s="126"/>
-      <c r="F51" s="126"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="126"/>
-      <c r="I51" s="126"/>
-      <c r="J51" s="129"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="128"/>
-      <c r="C52" s="126"/>
-      <c r="D52" s="126"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126">
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="128"/>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="127"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="125"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="128"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="127"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="125"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="125"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="125"/>
+      <c r="J36" s="128"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="127"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="128"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="127"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="128"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="127"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="125"/>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="125"/>
+      <c r="J39" s="128"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="127"/>
+      <c r="C40" s="125"/>
+      <c r="D40" s="125"/>
+      <c r="E40" s="125"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="125"/>
+      <c r="H40" s="125"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="128"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="127"/>
+      <c r="C41" s="125"/>
+      <c r="D41" s="125"/>
+      <c r="E41" s="125"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="125"/>
+      <c r="H41" s="125"/>
+      <c r="I41" s="125"/>
+      <c r="J41" s="128"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="127"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="128"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="127"/>
+      <c r="C43" s="125"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="128"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="127"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="128"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="127"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="128"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="127"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="128"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="127"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="128"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="127"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="128"/>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" s="127"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="128"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="127"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="128"/>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" s="127"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="128"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="127"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125">
         <v>845.89</v>
       </c>
-      <c r="G52" s="149" t="s">
+      <c r="G52" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="H52" s="126"/>
-      <c r="I52" s="126"/>
-      <c r="J52" s="129"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="128"/>
-      <c r="C53" s="126"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="126"/>
-      <c r="H53" s="126"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="129"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="128"/>
-      <c r="C54" s="126"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="126"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="126"/>
-      <c r="H54" s="126"/>
-      <c r="I54" s="126"/>
-      <c r="J54" s="129"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="128"/>
-      <c r="C55" s="126"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="126"/>
-      <c r="J55" s="129"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="128"/>
-      <c r="C56" s="126"/>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="129"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="128"/>
-      <c r="C57" s="126"/>
-      <c r="D57" s="126"/>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="126"/>
-      <c r="H57" s="126"/>
-      <c r="I57" s="126"/>
-      <c r="J57" s="129"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="128"/>
-      <c r="C58" s="126"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="129"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="128"/>
-      <c r="C59" s="126"/>
-      <c r="D59" s="126"/>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="129"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="128"/>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="129"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="128"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="129"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="128"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="129"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="128"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="129"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="128"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="129"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="128"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="129"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="128"/>
-      <c r="C66" s="126"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="129"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="128"/>
-      <c r="C67" s="141" t="s">
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="128"/>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" s="127"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="128"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="127"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="128"/>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" s="127"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="128"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="127"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="128"/>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" s="127"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="128"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="127"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="128"/>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" s="127"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="128"/>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="B60" s="127"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="128"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" s="127"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="128"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="127"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="128"/>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" s="127"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="128"/>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" s="127"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="128"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="127"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="128"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="127"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="128"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="127"/>
+      <c r="C67" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="129"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="128"/>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="129"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="128"/>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126">
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="128"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="127"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="128"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="127"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125">
         <v>90.1</v>
       </c>
-      <c r="H69" s="149" t="s">
+      <c r="H69" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="I69" s="126"/>
-      <c r="J69" s="129"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="128"/>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="129"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="128"/>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="129"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="128"/>
-      <c r="C72" s="126"/>
-      <c r="D72" s="126"/>
-      <c r="E72" s="126"/>
-      <c r="F72" s="126"/>
-      <c r="G72" s="126"/>
-      <c r="H72" s="126"/>
-      <c r="I72" s="126"/>
-      <c r="J72" s="129"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="128"/>
-      <c r="C73" s="126"/>
-      <c r="D73" s="126"/>
-      <c r="E73" s="126"/>
-      <c r="F73" s="126"/>
-      <c r="G73" s="126"/>
-      <c r="H73" s="126"/>
-      <c r="I73" s="126"/>
-      <c r="J73" s="129"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="128"/>
-      <c r="C74" s="126"/>
-      <c r="D74" s="126"/>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="129"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="128"/>
-      <c r="C75" s="126"/>
-      <c r="D75" s="126"/>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="129"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="128"/>
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="129"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="128"/>
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
-      <c r="E77" s="126"/>
-      <c r="F77" s="126"/>
-      <c r="G77" s="126"/>
-      <c r="H77" s="126"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="129"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="128"/>
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
-      <c r="E78" s="126"/>
-      <c r="F78" s="126"/>
-      <c r="G78" s="126"/>
-      <c r="H78" s="126"/>
-      <c r="I78" s="126"/>
-      <c r="J78" s="129"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="128"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="126"/>
-      <c r="E79" s="126"/>
-      <c r="F79" s="126"/>
-      <c r="G79" s="126"/>
-      <c r="H79" s="126"/>
-      <c r="I79" s="126"/>
-      <c r="J79" s="129"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="128"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="126"/>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
-      <c r="G80" s="126"/>
-      <c r="H80" s="126"/>
-      <c r="I80" s="126"/>
-      <c r="J80" s="129"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="128"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="126"/>
-      <c r="E81" s="126"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="126"/>
-      <c r="I81" s="126"/>
-      <c r="J81" s="129"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="128"/>
-      <c r="C82" s="126"/>
-      <c r="D82" s="126"/>
-      <c r="E82" s="126"/>
-      <c r="F82" s="126"/>
-      <c r="G82" s="126"/>
-      <c r="H82" s="126"/>
-      <c r="I82" s="126"/>
-      <c r="J82" s="129"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="128"/>
-      <c r="C83" s="126"/>
-      <c r="D83" s="126"/>
-      <c r="E83" s="126"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="126">
+      <c r="I69" s="125"/>
+      <c r="J69" s="128"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="127"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="128"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="127"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="128"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="127"/>
+      <c r="C72" s="125"/>
+      <c r="D72" s="125"/>
+      <c r="E72" s="125"/>
+      <c r="F72" s="125"/>
+      <c r="G72" s="125"/>
+      <c r="H72" s="125"/>
+      <c r="I72" s="125"/>
+      <c r="J72" s="128"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="127"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="125"/>
+      <c r="E73" s="125"/>
+      <c r="F73" s="125"/>
+      <c r="G73" s="125"/>
+      <c r="H73" s="125"/>
+      <c r="I73" s="125"/>
+      <c r="J73" s="128"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="127"/>
+      <c r="C74" s="125"/>
+      <c r="D74" s="125"/>
+      <c r="E74" s="125"/>
+      <c r="F74" s="125"/>
+      <c r="G74" s="125"/>
+      <c r="H74" s="125"/>
+      <c r="I74" s="125"/>
+      <c r="J74" s="128"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="127"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="125"/>
+      <c r="E75" s="125"/>
+      <c r="F75" s="125"/>
+      <c r="G75" s="125"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="125"/>
+      <c r="J75" s="128"/>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="127"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="125"/>
+      <c r="F76" s="125"/>
+      <c r="G76" s="125"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="125"/>
+      <c r="J76" s="128"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="127"/>
+      <c r="C77" s="125"/>
+      <c r="D77" s="125"/>
+      <c r="E77" s="125"/>
+      <c r="F77" s="125"/>
+      <c r="G77" s="125"/>
+      <c r="H77" s="125"/>
+      <c r="I77" s="125"/>
+      <c r="J77" s="128"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="127"/>
+      <c r="C78" s="125"/>
+      <c r="D78" s="125"/>
+      <c r="E78" s="125"/>
+      <c r="F78" s="125"/>
+      <c r="G78" s="125"/>
+      <c r="H78" s="125"/>
+      <c r="I78" s="125"/>
+      <c r="J78" s="128"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="127"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
+      <c r="F79" s="125"/>
+      <c r="G79" s="125"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="125"/>
+      <c r="J79" s="128"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="127"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="125"/>
+      <c r="E80" s="125"/>
+      <c r="F80" s="125"/>
+      <c r="G80" s="125"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="125"/>
+      <c r="J80" s="128"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="127"/>
+      <c r="C81" s="125"/>
+      <c r="D81" s="125"/>
+      <c r="E81" s="125"/>
+      <c r="F81" s="125"/>
+      <c r="G81" s="125"/>
+      <c r="H81" s="125"/>
+      <c r="I81" s="125"/>
+      <c r="J81" s="128"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="127"/>
+      <c r="C82" s="125"/>
+      <c r="D82" s="125"/>
+      <c r="E82" s="125"/>
+      <c r="F82" s="125"/>
+      <c r="G82" s="125"/>
+      <c r="H82" s="125"/>
+      <c r="I82" s="125"/>
+      <c r="J82" s="128"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="127"/>
+      <c r="C83" s="125"/>
+      <c r="D83" s="125"/>
+      <c r="E83" s="125"/>
+      <c r="F83" s="125"/>
+      <c r="G83" s="125">
         <v>23.1</v>
       </c>
-      <c r="H83" s="149" t="s">
+      <c r="H83" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="I83" s="126"/>
-      <c r="J83" s="129"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="128"/>
-      <c r="C84" s="126"/>
-      <c r="D84" s="126"/>
-      <c r="E84" s="126"/>
-      <c r="F84" s="126"/>
-      <c r="G84" s="126"/>
-      <c r="H84" s="126"/>
-      <c r="I84" s="126"/>
-      <c r="J84" s="129"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="128"/>
-      <c r="C85" s="126"/>
-      <c r="D85" s="126"/>
-      <c r="E85" s="126"/>
-      <c r="F85" s="126"/>
-      <c r="G85" s="126"/>
-      <c r="H85" s="126"/>
-      <c r="I85" s="126"/>
-      <c r="J85" s="129"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="128"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="129"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="128"/>
-      <c r="C87" s="126"/>
-      <c r="D87" s="126"/>
-      <c r="E87" s="126"/>
-      <c r="F87" s="126"/>
-      <c r="G87" s="126"/>
-      <c r="H87" s="126"/>
-      <c r="I87" s="126"/>
-      <c r="J87" s="129"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="128"/>
-      <c r="C88" s="126"/>
-      <c r="D88" s="126"/>
-      <c r="E88" s="126"/>
-      <c r="F88" s="126"/>
-      <c r="G88" s="126"/>
-      <c r="H88" s="126"/>
-      <c r="I88" s="126"/>
-      <c r="J88" s="129"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="128"/>
-      <c r="C89" s="126"/>
-      <c r="D89" s="126"/>
-      <c r="E89" s="126"/>
-      <c r="F89" s="126"/>
-      <c r="G89" s="126"/>
-      <c r="H89" s="126"/>
-      <c r="I89" s="126"/>
-      <c r="J89" s="129"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="128"/>
-      <c r="C90" s="126"/>
-      <c r="D90" s="126"/>
-      <c r="E90" s="126"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="126">
+      <c r="I83" s="125"/>
+      <c r="J83" s="128"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="127"/>
+      <c r="C84" s="125"/>
+      <c r="D84" s="125"/>
+      <c r="E84" s="125"/>
+      <c r="F84" s="125"/>
+      <c r="G84" s="125"/>
+      <c r="H84" s="125"/>
+      <c r="I84" s="125"/>
+      <c r="J84" s="128"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="127"/>
+      <c r="C85" s="125"/>
+      <c r="D85" s="125"/>
+      <c r="E85" s="125"/>
+      <c r="F85" s="125"/>
+      <c r="G85" s="125"/>
+      <c r="H85" s="125"/>
+      <c r="I85" s="125"/>
+      <c r="J85" s="128"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="127"/>
+      <c r="C86" s="125"/>
+      <c r="D86" s="125"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="125"/>
+      <c r="J86" s="128"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="127"/>
+      <c r="C87" s="125"/>
+      <c r="D87" s="125"/>
+      <c r="E87" s="125"/>
+      <c r="F87" s="125"/>
+      <c r="G87" s="125"/>
+      <c r="H87" s="125"/>
+      <c r="I87" s="125"/>
+      <c r="J87" s="128"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="127"/>
+      <c r="C88" s="125"/>
+      <c r="D88" s="125"/>
+      <c r="E88" s="125"/>
+      <c r="F88" s="125"/>
+      <c r="G88" s="125"/>
+      <c r="H88" s="125"/>
+      <c r="I88" s="125"/>
+      <c r="J88" s="128"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="127"/>
+      <c r="C89" s="125"/>
+      <c r="D89" s="125"/>
+      <c r="E89" s="125"/>
+      <c r="F89" s="125"/>
+      <c r="G89" s="125"/>
+      <c r="H89" s="125"/>
+      <c r="I89" s="125"/>
+      <c r="J89" s="128"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="127"/>
+      <c r="C90" s="125"/>
+      <c r="D90" s="125"/>
+      <c r="E90" s="125"/>
+      <c r="F90" s="125"/>
+      <c r="G90" s="125">
         <v>91.1</v>
       </c>
-      <c r="H90" s="149" t="s">
+      <c r="H90" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="I90" s="126"/>
-      <c r="J90" s="129"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B91" s="128"/>
-      <c r="C91" s="126"/>
-      <c r="D91" s="126"/>
-      <c r="E91" s="126"/>
-      <c r="F91" s="126"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="126"/>
-      <c r="I91" s="126"/>
-      <c r="J91" s="129"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B92" s="128"/>
-      <c r="C92" s="126"/>
-      <c r="D92" s="126"/>
-      <c r="E92" s="126"/>
-      <c r="F92" s="126"/>
-      <c r="G92" s="126"/>
-      <c r="H92" s="126"/>
-      <c r="I92" s="126"/>
-      <c r="J92" s="129"/>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B93" s="128"/>
-      <c r="C93" s="126"/>
-      <c r="D93" s="126"/>
-      <c r="E93" s="126"/>
-      <c r="F93" s="126"/>
-      <c r="G93" s="126"/>
-      <c r="H93" s="126"/>
-      <c r="I93" s="126"/>
-      <c r="J93" s="129"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B94" s="128"/>
-      <c r="C94" s="126"/>
-      <c r="D94" s="126"/>
-      <c r="E94" s="126"/>
-      <c r="F94" s="126"/>
-      <c r="G94" s="126"/>
-      <c r="H94" s="126"/>
-      <c r="I94" s="126"/>
-      <c r="J94" s="129"/>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="128"/>
-      <c r="C95" s="126"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="126"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="126"/>
-      <c r="H95" s="126"/>
-      <c r="I95" s="126"/>
-      <c r="J95" s="129"/>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="128"/>
-      <c r="C96" s="126"/>
-      <c r="D96" s="126"/>
-      <c r="E96" s="126"/>
-      <c r="F96" s="126"/>
-      <c r="G96" s="126"/>
-      <c r="H96" s="126"/>
-      <c r="I96" s="126"/>
-      <c r="J96" s="129"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B97" s="128"/>
-      <c r="C97" s="126"/>
-      <c r="D97" s="126"/>
-      <c r="E97" s="126"/>
-      <c r="F97" s="126"/>
-      <c r="G97" s="126"/>
-      <c r="H97" s="126"/>
-      <c r="I97" s="126"/>
-      <c r="J97" s="129"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B98" s="128"/>
-      <c r="C98" s="126"/>
-      <c r="D98" s="126"/>
-      <c r="E98" s="126"/>
-      <c r="F98" s="126"/>
-      <c r="G98" s="126"/>
-      <c r="H98" s="126"/>
-      <c r="I98" s="126"/>
-      <c r="J98" s="129"/>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B99" s="128"/>
-      <c r="C99" s="126"/>
-      <c r="D99" s="126"/>
-      <c r="E99" s="126"/>
-      <c r="F99" s="126"/>
-      <c r="G99" s="126"/>
-      <c r="H99" s="126"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="129"/>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B100" s="128"/>
-      <c r="C100" s="126"/>
-      <c r="D100" s="126"/>
-      <c r="E100" s="126"/>
-      <c r="F100" s="126"/>
-      <c r="G100" s="126"/>
-      <c r="H100" s="126"/>
-      <c r="I100" s="126"/>
-      <c r="J100" s="129"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B101" s="128"/>
-      <c r="C101" s="126"/>
-      <c r="D101" s="126"/>
-      <c r="E101" s="126"/>
-      <c r="F101" s="126"/>
-      <c r="G101" s="126"/>
-      <c r="H101" s="126"/>
-      <c r="I101" s="126"/>
-      <c r="J101" s="129"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B102" s="128"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
-      <c r="F102" s="126"/>
-      <c r="G102" s="126"/>
-      <c r="H102" s="126"/>
-      <c r="I102" s="126"/>
-      <c r="J102" s="129"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B103" s="128"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="126"/>
-      <c r="H103" s="126"/>
-      <c r="I103" s="126"/>
-      <c r="J103" s="129"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B104" s="128"/>
-      <c r="C104" s="126"/>
-      <c r="D104" s="126"/>
-      <c r="E104" s="126"/>
-      <c r="F104" s="126"/>
-      <c r="G104" s="126"/>
-      <c r="H104" s="126"/>
-      <c r="I104" s="126"/>
-      <c r="J104" s="129"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B105" s="128"/>
-      <c r="C105" s="126"/>
-      <c r="D105" s="126"/>
-      <c r="E105" s="126"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="126"/>
-      <c r="I105" s="126"/>
-      <c r="J105" s="129"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B106" s="128"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
-      <c r="F106" s="126"/>
-      <c r="G106" s="126"/>
-      <c r="H106" s="126"/>
-      <c r="I106" s="126"/>
-      <c r="J106" s="129"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B107" s="128"/>
-      <c r="C107" s="126"/>
-      <c r="D107" s="126"/>
-      <c r="E107" s="126"/>
-      <c r="F107" s="126"/>
-      <c r="G107" s="126">
+      <c r="I90" s="125"/>
+      <c r="J90" s="128"/>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="127"/>
+      <c r="C91" s="125"/>
+      <c r="D91" s="125"/>
+      <c r="E91" s="125"/>
+      <c r="F91" s="125"/>
+      <c r="G91" s="125"/>
+      <c r="H91" s="125"/>
+      <c r="I91" s="125"/>
+      <c r="J91" s="128"/>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="127"/>
+      <c r="C92" s="125"/>
+      <c r="D92" s="125"/>
+      <c r="E92" s="125"/>
+      <c r="F92" s="125"/>
+      <c r="G92" s="125"/>
+      <c r="H92" s="125"/>
+      <c r="I92" s="125"/>
+      <c r="J92" s="128"/>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="127"/>
+      <c r="C93" s="125"/>
+      <c r="D93" s="125"/>
+      <c r="E93" s="125"/>
+      <c r="F93" s="125"/>
+      <c r="G93" s="125"/>
+      <c r="H93" s="125"/>
+      <c r="I93" s="125"/>
+      <c r="J93" s="128"/>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="127"/>
+      <c r="C94" s="125"/>
+      <c r="D94" s="125"/>
+      <c r="E94" s="125"/>
+      <c r="F94" s="125"/>
+      <c r="G94" s="125"/>
+      <c r="H94" s="125"/>
+      <c r="I94" s="125"/>
+      <c r="J94" s="128"/>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="127"/>
+      <c r="C95" s="125"/>
+      <c r="D95" s="125"/>
+      <c r="E95" s="125"/>
+      <c r="F95" s="125"/>
+      <c r="G95" s="125"/>
+      <c r="H95" s="125"/>
+      <c r="I95" s="125"/>
+      <c r="J95" s="128"/>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="127"/>
+      <c r="C96" s="125"/>
+      <c r="D96" s="125"/>
+      <c r="E96" s="125"/>
+      <c r="F96" s="125"/>
+      <c r="G96" s="125"/>
+      <c r="H96" s="125"/>
+      <c r="I96" s="125"/>
+      <c r="J96" s="128"/>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="127"/>
+      <c r="C97" s="125"/>
+      <c r="D97" s="125"/>
+      <c r="E97" s="125"/>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="128"/>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="127"/>
+      <c r="C98" s="125"/>
+      <c r="D98" s="125"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="125"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="128"/>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="127"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="125"/>
+      <c r="G99" s="125"/>
+      <c r="H99" s="125"/>
+      <c r="I99" s="125"/>
+      <c r="J99" s="128"/>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="127"/>
+      <c r="C100" s="125"/>
+      <c r="D100" s="125"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="125"/>
+      <c r="I100" s="125"/>
+      <c r="J100" s="128"/>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="127"/>
+      <c r="C101" s="125"/>
+      <c r="D101" s="125"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="125"/>
+      <c r="J101" s="128"/>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="127"/>
+      <c r="C102" s="125"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
+      <c r="F102" s="125"/>
+      <c r="G102" s="125"/>
+      <c r="H102" s="125"/>
+      <c r="I102" s="125"/>
+      <c r="J102" s="128"/>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="127"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
+      <c r="F103" s="125"/>
+      <c r="G103" s="125"/>
+      <c r="H103" s="125"/>
+      <c r="I103" s="125"/>
+      <c r="J103" s="128"/>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="127"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="125"/>
+      <c r="E104" s="125"/>
+      <c r="F104" s="125"/>
+      <c r="G104" s="125"/>
+      <c r="H104" s="125"/>
+      <c r="I104" s="125"/>
+      <c r="J104" s="128"/>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="127"/>
+      <c r="C105" s="125"/>
+      <c r="D105" s="125"/>
+      <c r="E105" s="125"/>
+      <c r="F105" s="125"/>
+      <c r="G105" s="125"/>
+      <c r="H105" s="125"/>
+      <c r="I105" s="125"/>
+      <c r="J105" s="128"/>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="127"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="125"/>
+      <c r="F106" s="125"/>
+      <c r="G106" s="125"/>
+      <c r="H106" s="125"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="128"/>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="127"/>
+      <c r="C107" s="125"/>
+      <c r="D107" s="125"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="125"/>
+      <c r="G107" s="125">
         <v>22.4</v>
       </c>
-      <c r="H107" s="149" t="s">
+      <c r="H107" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="I107" s="126"/>
-      <c r="J107" s="129"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B108" s="128"/>
-      <c r="C108" s="126"/>
-      <c r="D108" s="126"/>
-      <c r="E108" s="126"/>
-      <c r="F108" s="126"/>
-      <c r="G108" s="126"/>
-      <c r="H108" s="126"/>
-      <c r="I108" s="126"/>
-      <c r="J108" s="129"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B109" s="128"/>
-      <c r="C109" s="126"/>
-      <c r="D109" s="126"/>
-      <c r="E109" s="126"/>
-      <c r="F109" s="126"/>
-      <c r="G109" s="126"/>
-      <c r="H109" s="126"/>
-      <c r="I109" s="126"/>
-      <c r="J109" s="129"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B110" s="128"/>
-      <c r="C110" s="126"/>
-      <c r="D110" s="126"/>
-      <c r="E110" s="126"/>
-      <c r="F110" s="126"/>
-      <c r="G110" s="126"/>
-      <c r="H110" s="126"/>
-      <c r="I110" s="126"/>
-      <c r="J110" s="129"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B111" s="128"/>
-      <c r="C111" s="126"/>
-      <c r="D111" s="126"/>
-      <c r="E111" s="126"/>
-      <c r="F111" s="126"/>
-      <c r="G111" s="126"/>
-      <c r="H111" s="126"/>
-      <c r="I111" s="126"/>
-      <c r="J111" s="129"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B112" s="128"/>
-      <c r="C112" s="126"/>
-      <c r="D112" s="126"/>
-      <c r="E112" s="126"/>
-      <c r="F112" s="126"/>
-      <c r="G112" s="126"/>
-      <c r="H112" s="126"/>
-      <c r="I112" s="126"/>
-      <c r="J112" s="129"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B113" s="128"/>
-      <c r="C113" s="126"/>
-      <c r="D113" s="126"/>
-      <c r="E113" s="126"/>
-      <c r="F113" s="126"/>
-      <c r="G113" s="126"/>
-      <c r="H113" s="126"/>
-      <c r="I113" s="126"/>
-      <c r="J113" s="129"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B114" s="128"/>
-      <c r="C114" s="126"/>
-      <c r="D114" s="126"/>
-      <c r="E114" s="126"/>
-      <c r="F114" s="126"/>
-      <c r="G114" s="126"/>
-      <c r="H114" s="126"/>
-      <c r="I114" s="126"/>
-      <c r="J114" s="129"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B115" s="128"/>
-      <c r="C115" s="126"/>
-      <c r="D115" s="126"/>
-      <c r="E115" s="126"/>
-      <c r="F115" s="126"/>
-      <c r="G115" s="126"/>
-      <c r="H115" s="126"/>
-      <c r="I115" s="126"/>
-      <c r="J115" s="129"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B116" s="128"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="126"/>
-      <c r="E116" s="126"/>
-      <c r="F116" s="126"/>
-      <c r="G116" s="126">
+      <c r="I107" s="125"/>
+      <c r="J107" s="128"/>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="B108" s="127"/>
+      <c r="C108" s="125"/>
+      <c r="D108" s="125"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="125"/>
+      <c r="G108" s="125"/>
+      <c r="H108" s="125"/>
+      <c r="I108" s="125"/>
+      <c r="J108" s="128"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="127"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
+      <c r="F109" s="125"/>
+      <c r="G109" s="125"/>
+      <c r="H109" s="125"/>
+      <c r="I109" s="125"/>
+      <c r="J109" s="128"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="127"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
+      <c r="F110" s="125"/>
+      <c r="G110" s="125"/>
+      <c r="H110" s="125"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="128"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="127"/>
+      <c r="C111" s="125"/>
+      <c r="D111" s="125"/>
+      <c r="E111" s="125"/>
+      <c r="F111" s="125"/>
+      <c r="G111" s="125"/>
+      <c r="H111" s="125"/>
+      <c r="I111" s="125"/>
+      <c r="J111" s="128"/>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="127"/>
+      <c r="C112" s="125"/>
+      <c r="D112" s="125"/>
+      <c r="E112" s="125"/>
+      <c r="F112" s="125"/>
+      <c r="G112" s="125"/>
+      <c r="H112" s="125"/>
+      <c r="I112" s="125"/>
+      <c r="J112" s="128"/>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="127"/>
+      <c r="C113" s="125"/>
+      <c r="D113" s="125"/>
+      <c r="E113" s="125"/>
+      <c r="F113" s="125"/>
+      <c r="G113" s="125"/>
+      <c r="H113" s="125"/>
+      <c r="I113" s="125"/>
+      <c r="J113" s="128"/>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="127"/>
+      <c r="C114" s="125"/>
+      <c r="D114" s="125"/>
+      <c r="E114" s="125"/>
+      <c r="F114" s="125"/>
+      <c r="G114" s="125"/>
+      <c r="H114" s="125"/>
+      <c r="I114" s="125"/>
+      <c r="J114" s="128"/>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="127"/>
+      <c r="C115" s="125"/>
+      <c r="D115" s="125"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="125"/>
+      <c r="G115" s="125"/>
+      <c r="H115" s="125"/>
+      <c r="I115" s="125"/>
+      <c r="J115" s="128"/>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="127"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="125"/>
+      <c r="E116" s="125"/>
+      <c r="F116" s="125"/>
+      <c r="G116" s="125">
         <v>90.2</v>
       </c>
-      <c r="H116" s="149" t="s">
+      <c r="H116" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="I116" s="126"/>
-      <c r="J116" s="129"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B117" s="128"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="126"/>
-      <c r="E117" s="126"/>
-      <c r="F117" s="126"/>
-      <c r="G117" s="126"/>
-      <c r="H117" s="126"/>
-      <c r="I117" s="126"/>
-      <c r="J117" s="129"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B118" s="128"/>
-      <c r="C118" s="126"/>
-      <c r="D118" s="126"/>
-      <c r="E118" s="126"/>
-      <c r="F118" s="126"/>
-      <c r="G118" s="126"/>
-      <c r="H118" s="126"/>
-      <c r="I118" s="126"/>
-      <c r="J118" s="129"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B119" s="128"/>
-      <c r="C119" s="126"/>
-      <c r="D119" s="126"/>
-      <c r="E119" s="126"/>
-      <c r="F119" s="126"/>
-      <c r="G119" s="126"/>
-      <c r="H119" s="126"/>
-      <c r="I119" s="126"/>
-      <c r="J119" s="129"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B120" s="128"/>
-      <c r="C120" s="126"/>
-      <c r="D120" s="126"/>
-      <c r="E120" s="126"/>
-      <c r="F120" s="126"/>
-      <c r="G120" s="126"/>
-      <c r="H120" s="126"/>
-      <c r="I120" s="126"/>
-      <c r="J120" s="129"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B121" s="128"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="126"/>
-      <c r="E121" s="126"/>
-      <c r="F121" s="126"/>
-      <c r="G121" s="126"/>
-      <c r="H121" s="126"/>
-      <c r="I121" s="126"/>
-      <c r="J121" s="129"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B122" s="128"/>
-      <c r="C122" s="126"/>
-      <c r="D122" s="126"/>
-      <c r="E122" s="126"/>
-      <c r="F122" s="126"/>
-      <c r="G122" s="126"/>
-      <c r="H122" s="126"/>
-      <c r="I122" s="126"/>
-      <c r="J122" s="129"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B123" s="128"/>
-      <c r="C123" s="126"/>
-      <c r="D123" s="126"/>
-      <c r="E123" s="126"/>
-      <c r="F123" s="126"/>
-      <c r="G123" s="126"/>
-      <c r="H123" s="126"/>
-      <c r="I123" s="126"/>
-      <c r="J123" s="129"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B124" s="128"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="126"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="126"/>
-      <c r="G124" s="126"/>
-      <c r="H124" s="126"/>
-      <c r="I124" s="126"/>
-      <c r="J124" s="129"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B125" s="128"/>
-      <c r="C125" s="126"/>
-      <c r="D125" s="126"/>
-      <c r="E125" s="126"/>
-      <c r="F125" s="126"/>
-      <c r="G125" s="126"/>
-      <c r="H125" s="126"/>
-      <c r="I125" s="126"/>
-      <c r="J125" s="129"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B126" s="128"/>
-      <c r="C126" s="126"/>
-      <c r="D126" s="126"/>
-      <c r="E126" s="126"/>
-      <c r="F126" s="126"/>
-      <c r="G126" s="126"/>
-      <c r="H126" s="126"/>
-      <c r="I126" s="126"/>
-      <c r="J126" s="129"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B127" s="128"/>
-      <c r="C127" s="126"/>
-      <c r="D127" s="126"/>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
-      <c r="G127" s="126"/>
-      <c r="H127" s="126"/>
-      <c r="I127" s="126"/>
-      <c r="J127" s="129"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B128" s="128"/>
-      <c r="C128" s="126"/>
-      <c r="D128" s="126"/>
-      <c r="E128" s="126"/>
-      <c r="F128" s="126"/>
-      <c r="G128" s="126"/>
-      <c r="H128" s="126"/>
-      <c r="I128" s="126"/>
-      <c r="J128" s="129"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B129" s="128"/>
-      <c r="C129" s="126"/>
-      <c r="D129" s="126"/>
-      <c r="E129" s="126"/>
-      <c r="F129" s="126"/>
-      <c r="G129" s="126"/>
-      <c r="H129" s="126"/>
-      <c r="I129" s="126"/>
-      <c r="J129" s="129"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B130" s="128"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="126"/>
-      <c r="E130" s="126"/>
-      <c r="F130" s="126"/>
-      <c r="G130" s="126"/>
-      <c r="H130" s="126"/>
-      <c r="I130" s="126"/>
-      <c r="J130" s="129"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B131" s="128"/>
-      <c r="C131" s="126"/>
-      <c r="D131" s="126"/>
-      <c r="E131" s="126"/>
-      <c r="F131" s="126"/>
-      <c r="G131" s="126"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="126"/>
-      <c r="J131" s="129"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B132" s="128"/>
-      <c r="C132" s="126"/>
-      <c r="D132" s="126"/>
-      <c r="E132" s="126"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="126"/>
-      <c r="H132" s="126"/>
-      <c r="I132" s="126"/>
-      <c r="J132" s="129"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B133" s="128"/>
-      <c r="C133" s="126"/>
-      <c r="D133" s="126"/>
-      <c r="E133" s="126"/>
-      <c r="F133" s="126"/>
-      <c r="G133" s="126">
+      <c r="I116" s="125"/>
+      <c r="J116" s="128"/>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="127"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="125"/>
+      <c r="E117" s="125"/>
+      <c r="F117" s="125"/>
+      <c r="G117" s="125"/>
+      <c r="H117" s="125"/>
+      <c r="I117" s="125"/>
+      <c r="J117" s="128"/>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="127"/>
+      <c r="C118" s="125"/>
+      <c r="D118" s="125"/>
+      <c r="E118" s="125"/>
+      <c r="F118" s="125"/>
+      <c r="G118" s="125"/>
+      <c r="H118" s="125"/>
+      <c r="I118" s="125"/>
+      <c r="J118" s="128"/>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="127"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="125"/>
+      <c r="E119" s="125"/>
+      <c r="F119" s="125"/>
+      <c r="G119" s="125"/>
+      <c r="H119" s="125"/>
+      <c r="I119" s="125"/>
+      <c r="J119" s="128"/>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="127"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="125"/>
+      <c r="E120" s="125"/>
+      <c r="F120" s="125"/>
+      <c r="G120" s="125"/>
+      <c r="H120" s="125"/>
+      <c r="I120" s="125"/>
+      <c r="J120" s="128"/>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="B121" s="127"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="125"/>
+      <c r="E121" s="125"/>
+      <c r="F121" s="125"/>
+      <c r="G121" s="125"/>
+      <c r="H121" s="125"/>
+      <c r="I121" s="125"/>
+      <c r="J121" s="128"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="B122" s="127"/>
+      <c r="C122" s="125"/>
+      <c r="D122" s="125"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="125"/>
+      <c r="G122" s="125"/>
+      <c r="H122" s="125"/>
+      <c r="I122" s="125"/>
+      <c r="J122" s="128"/>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="B123" s="127"/>
+      <c r="C123" s="125"/>
+      <c r="D123" s="125"/>
+      <c r="E123" s="125"/>
+      <c r="F123" s="125"/>
+      <c r="G123" s="125"/>
+      <c r="H123" s="125"/>
+      <c r="I123" s="125"/>
+      <c r="J123" s="128"/>
+    </row>
+    <row r="124" spans="2:10">
+      <c r="B124" s="127"/>
+      <c r="C124" s="125"/>
+      <c r="D124" s="125"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="125"/>
+      <c r="G124" s="125"/>
+      <c r="H124" s="125"/>
+      <c r="I124" s="125"/>
+      <c r="J124" s="128"/>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="B125" s="127"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
+      <c r="G125" s="125"/>
+      <c r="H125" s="125"/>
+      <c r="I125" s="125"/>
+      <c r="J125" s="128"/>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="B126" s="127"/>
+      <c r="C126" s="125"/>
+      <c r="D126" s="125"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="125"/>
+      <c r="G126" s="125"/>
+      <c r="H126" s="125"/>
+      <c r="I126" s="125"/>
+      <c r="J126" s="128"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="127"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="125"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="125"/>
+      <c r="G127" s="125"/>
+      <c r="H127" s="125"/>
+      <c r="I127" s="125"/>
+      <c r="J127" s="128"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="127"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="125"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="125"/>
+      <c r="G128" s="125"/>
+      <c r="H128" s="125"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="128"/>
+    </row>
+    <row r="129" spans="2:10">
+      <c r="B129" s="127"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="125"/>
+      <c r="E129" s="125"/>
+      <c r="F129" s="125"/>
+      <c r="G129" s="125"/>
+      <c r="H129" s="125"/>
+      <c r="I129" s="125"/>
+      <c r="J129" s="128"/>
+    </row>
+    <row r="130" spans="2:10">
+      <c r="B130" s="127"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="125"/>
+      <c r="E130" s="125"/>
+      <c r="F130" s="125"/>
+      <c r="G130" s="125"/>
+      <c r="H130" s="125"/>
+      <c r="I130" s="125"/>
+      <c r="J130" s="128"/>
+    </row>
+    <row r="131" spans="2:10">
+      <c r="B131" s="127"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="125"/>
+      <c r="E131" s="125"/>
+      <c r="F131" s="125"/>
+      <c r="G131" s="125"/>
+      <c r="H131" s="125"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="128"/>
+    </row>
+    <row r="132" spans="2:10">
+      <c r="B132" s="127"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="125"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="125"/>
+      <c r="G132" s="125"/>
+      <c r="H132" s="125"/>
+      <c r="I132" s="125"/>
+      <c r="J132" s="128"/>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="127"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="125"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125">
         <v>21.9</v>
       </c>
-      <c r="H133" s="149" t="s">
+      <c r="H133" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="I133" s="126"/>
-      <c r="J133" s="129"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B134" s="128"/>
-      <c r="C134" s="126"/>
-      <c r="D134" s="126"/>
-      <c r="E134" s="126"/>
-      <c r="F134" s="126"/>
-      <c r="G134" s="126"/>
-      <c r="H134" s="126"/>
-      <c r="I134" s="126"/>
-      <c r="J134" s="129"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B135" s="128"/>
-      <c r="C135" s="126"/>
-      <c r="D135" s="126"/>
-      <c r="E135" s="126"/>
-      <c r="F135" s="126"/>
-      <c r="G135" s="126"/>
-      <c r="H135" s="126"/>
-      <c r="I135" s="126"/>
-      <c r="J135" s="129"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B136" s="128"/>
-      <c r="C136" s="126"/>
-      <c r="D136" s="126"/>
-      <c r="E136" s="126"/>
-      <c r="F136" s="126"/>
-      <c r="G136" s="126"/>
-      <c r="H136" s="126"/>
-      <c r="I136" s="126"/>
-      <c r="J136" s="129"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="128"/>
+    </row>
+    <row r="134" spans="2:10">
+      <c r="B134" s="127"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="125"/>
+      <c r="E134" s="125"/>
+      <c r="F134" s="125"/>
+      <c r="G134" s="125"/>
+      <c r="H134" s="125"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="128"/>
+    </row>
+    <row r="135" spans="2:10">
+      <c r="B135" s="127"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="125"/>
+      <c r="E135" s="125"/>
+      <c r="F135" s="125"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="125"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="128"/>
+    </row>
+    <row r="136" spans="2:10">
+      <c r="B136" s="127"/>
+      <c r="C136" s="125"/>
+      <c r="D136" s="125"/>
+      <c r="E136" s="125"/>
+      <c r="F136" s="125"/>
+      <c r="G136" s="125"/>
+      <c r="H136" s="125"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
